--- a/APM files/122325576/Exports Results/122325576 EXPORT RT&RP Cloud Export_Clone_result.xlsx
+++ b/APM files/122325576/Exports Results/122325576 EXPORT RT&RP Cloud Export_Clone_result.xlsx
@@ -592,7 +592,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>xNot Refundable</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>xinc</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J3"/>
@@ -974,7 +974,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>xStandard Rate</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -999,7 +999,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>xinc</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J5"/>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>PKG-RateCo</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J6"/>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>PKG-RoomOn</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J7"/>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>xStandard Rate</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>xinc</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J9"/>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>xNot Refundable</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>xinc</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J11"/>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>PKG-RateCo</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J12"/>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>PKG-RoomOn</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J13"/>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>xStandard Rate</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>xinc</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J15"/>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>xNot Refundable</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>xinc</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J17"/>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -3472,7 +3472,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3482,7 +3482,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>PKG-RateCo</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J18"/>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>PKG-RoomOn</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J19"/>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>xStandard Rate</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -4055,7 +4055,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>xinc</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J21"/>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>xNot Refundable</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>xinc</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J23"/>
@@ -4603,7 +4603,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>PKG-RateCo</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J24"/>
@@ -4794,7 +4794,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -4809,7 +4809,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -4819,7 +4819,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>PKG-RoomOn</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J25"/>
@@ -5176,7 +5176,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>xStandard Rate</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>xinc</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J27"/>
@@ -5558,7 +5558,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>xNot Refundable</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>xinc</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J29"/>
@@ -5749,7 +5749,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -5764,7 +5764,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -5774,7 +5774,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>PKG-RateCo</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J30"/>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -5965,7 +5965,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>PKG-RoomOn</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J31"/>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>xStandard Rate</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -6347,7 +6347,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>xinc</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J33"/>
@@ -6704,7 +6704,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>xNot Refundable</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -6729,7 +6729,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>xinc</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J35"/>
@@ -6895,7 +6895,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>PKG-RateCo</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J36"/>
@@ -7086,7 +7086,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>PKG-RoomOn</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J37"/>
@@ -7468,7 +7468,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>xStandard Rate</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -7493,7 +7493,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>xinc</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J39"/>
@@ -7850,7 +7850,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Not Refundable</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -7875,7 +7875,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>inc</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J41"/>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -8066,7 +8066,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>PKG-RoomOn</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J42"/>
@@ -8232,7 +8232,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -8257,7 +8257,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>PKG-RateCo</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J43"/>
@@ -8813,7 +8813,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>xNot Refundable</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -8838,7 +8838,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>xinc</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J46"/>
@@ -9008,7 +9008,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>xStandard Rate</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -9033,7 +9033,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>xinc</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J47"/>
@@ -9203,7 +9203,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -9218,7 +9218,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -9228,7 +9228,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>PKG-RateCo</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J48"/>
@@ -9398,7 +9398,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -9413,7 +9413,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -9423,7 +9423,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>PKG-RoomOn</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J49"/>
@@ -9792,7 +9792,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>xNot Refundable</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>xinc</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J51"/>
@@ -10190,7 +10190,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>xStandard Rate</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -10215,7 +10215,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>xinc</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J53"/>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -10414,7 +10414,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>PKG-RateCo</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J54"/>
@@ -10588,7 +10588,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -10613,7 +10613,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>PKG-RoomOn</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J55"/>
@@ -10978,7 +10978,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -10993,7 +10993,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -11003,7 +11003,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>RateCode</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J57"/>
@@ -11360,7 +11360,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -11375,7 +11375,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -11385,7 +11385,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>PKG</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J59"/>
@@ -11742,7 +11742,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -11767,7 +11767,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>RateCode</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J61"/>
@@ -12124,7 +12124,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -12149,7 +12149,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>PKG-RateCo</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J63"/>
@@ -12315,7 +12315,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -12340,7 +12340,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>PKG-RoomOn</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J64"/>
@@ -12709,7 +12709,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -12734,7 +12734,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>RateCode</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J66"/>
@@ -13318,7 +13318,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -13343,7 +13343,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>PKG-RateCo</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J69"/>
@@ -13521,7 +13521,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -13546,7 +13546,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>PKG-RoomOn</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J70"/>
@@ -13915,7 +13915,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -13940,7 +13940,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>RateCode</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J72"/>
@@ -14297,7 +14297,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -14322,7 +14322,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>PKG-RateCo</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J74"/>
@@ -14488,7 +14488,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -14513,7 +14513,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>PKG-RoomOn</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J75"/>
@@ -14870,7 +14870,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -14895,7 +14895,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>RateCode</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J77"/>
@@ -15252,7 +15252,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -15267,7 +15267,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -15277,7 +15277,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>PKG-RateCo</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J79"/>
@@ -15443,7 +15443,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -15458,7 +15458,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -15468,7 +15468,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>PKG-RoomOn</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J80"/>
@@ -15825,7 +15825,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -15850,7 +15850,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>RateCode</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J82"/>
@@ -16207,7 +16207,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -16222,7 +16222,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -16232,7 +16232,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>PKG-RateCo</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J84"/>
@@ -16398,7 +16398,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -16413,7 +16413,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -16423,7 +16423,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>PKG-RoomOn</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J85"/>
@@ -16784,7 +16784,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -16799,7 +16799,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -16809,7 +16809,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>RateCode</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J87"/>
@@ -17373,7 +17373,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -17388,7 +17388,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -17398,7 +17398,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>RateCode</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J90"/>
@@ -17966,7 +17966,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -17981,7 +17981,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -17991,7 +17991,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>RateCode</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J93"/>
@@ -18551,7 +18551,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -18576,7 +18576,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>RateCode</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J96"/>
@@ -19136,7 +19136,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -19151,7 +19151,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -19161,7 +19161,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>RateCode</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J99"/>
@@ -19721,7 +19721,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -19736,7 +19736,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -19746,7 +19746,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>RateCode</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J102"/>
@@ -20306,7 +20306,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -20331,7 +20331,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>RateCode</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J105"/>
@@ -21862,7 +21862,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -21877,7 +21877,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -21887,7 +21887,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>RateCode</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J113"/>
@@ -22248,7 +22248,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -22273,7 +22273,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>RateCode</t>
+          <t>DONOTUSE</t>
         </is>
       </c>
       <c r="J115"/>
